--- a/reports/_SM LINE CORPORATION_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-11-28_27_.xlsx
+++ b/reports/_SM LINE CORPORATION_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-11-28_27_.xlsx
@@ -138,7 +138,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -177,7 +177,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -191,7 +191,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>SM LINE CORPORATION</t>
         </is>
       </c>
     </row>
@@ -432,7 +432,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -447,7 +447,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -461,7 +461,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>SM LINE CORPORATION</t>
         </is>
       </c>
     </row>
@@ -578,7 +578,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -593,7 +593,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -607,7 +607,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>SM LINE CORPORATION</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -763,7 +763,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>SM LINE CORPORATION</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -1038,7 +1038,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1052,7 +1052,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>SM LINE CORPORATION</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1211,7 +1211,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>SM LINE CORPORATION</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -1489,7 +1489,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1503,7 +1503,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>SM LINE CORPORATION</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1657,7 +1657,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>SM LINE CORPORATION</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -3199,7 +3199,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -3213,7 +3213,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>SM LINE CORPORATION</t>
         </is>
       </c>
     </row>
@@ -3342,7 +3342,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -3369,7 +3369,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -3383,7 +3383,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>SM LINE CORPORATION</t>
         </is>
       </c>
     </row>

--- a/reports/_SM LINE CORPORATION_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-11-28_27_.xlsx
+++ b/reports/_SM LINE CORPORATION_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-11-28_27_.xlsx
@@ -19,9 +19,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="100" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="101" formatCode="yyyy/mm/dd hh:mm:ss"/>
+    <numFmt numFmtId="102" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -110,13 +111,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="0" numFmtId="14" fontId="0" fillId="0" xfId="0" applyNumberFormat="1"/>
     <xf borderId="2" numFmtId="0" fontId="1" fillId="2" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" wrapText="false"/>
     </xf>
+    <xf borderId="0" numFmtId="102" fontId="0" fillId="0" applyNumberFormat="true" applyFill="false" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf borderId="3" numFmtId="0" fontId="2" fillId="3" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
   </cellXfs>
   <cellStyles count="1">
@@ -132,13 +134,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AH8"/>
+  <dimension ref="A1:AH7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -148,30 +150,30 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="19.213483146067418"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.713483146067418"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="32" max="32" bestFit="false" customWidth="false"/>
-    <col min="33" max="33" bestFit="false" customWidth="false"/>
-    <col min="34" max="34" bestFit="false" customWidth="false"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="8.713483146067416"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="7.213483146067416"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="11.713483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -181,229 +183,237 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>SM LINE CORPORATION</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>SM LINE CORPORATION</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Import Container In Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Issue Date</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>In Date</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Unstuffing Date</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Out Date</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Seal Number</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Amen Seal No</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Vessel</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Rotation Number</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>Line Number</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>Be Number</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
+          <t>Bl Number</t>
+        </is>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>From Location</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Depot Location</t>
+        </is>
+      </c>
+      <c r="AB6" s="5" t="inlineStr">
+        <is>
+          <t>Importer</t>
+        </is>
+      </c>
+      <c r="AC6" s="5" t="inlineStr">
+        <is>
+          <t>Cnf</t>
+        </is>
+      </c>
+      <c r="AD6" s="5" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="AE6" s="5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="AF6" s="5" t="inlineStr">
+        <is>
+          <t>In Transport</t>
+        </is>
+      </c>
+      <c r="AG6" s="5" t="inlineStr">
+        <is>
+          <t>In Trailer</t>
+        </is>
+      </c>
+      <c r="AH6" s="5" t="inlineStr">
+        <is>
+          <t>In Remarks</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Unstuffing Date</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>Out Date</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Vessel</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>In Transport</t>
-        </is>
-      </c>
-      <c r="AD7" s="4" t="inlineStr">
-        <is>
-          <t>In Trailer</t>
-        </is>
-      </c>
-      <c r="AE7" s="4" t="inlineStr">
-        <is>
-          <t>In Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0"/>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="0"/>
-      <c r="AC8" s="0"/>
-      <c r="AD8" s="0"/>
-      <c r="AE8" s="0"/>
-      <c r="AF8" s="0"/>
-      <c r="AG8" s="0"/>
-      <c r="AH8" s="0"/>
+      <c r="A7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
+      <c r="AE7" s="0"/>
+      <c r="AF7" s="0"/>
+      <c r="AG7" s="0"/>
+      <c r="AH7" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -426,15 +436,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -451,103 +461,96 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>SM LINE CORPORATION</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>SM LINE CORPORATION</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Import Issue Balance Report Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -572,15 +575,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -597,103 +600,96 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>SM LINE CORPORATION</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>SM LINE CORPORATION</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Import Container In Report</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -718,13 +714,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AH8"/>
+  <dimension ref="A1:AH7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="46.456179775280894" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -733,31 +729,31 @@
     <col min="7" max="7" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="24" max="24" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="19.213483146067418"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="33" max="33" bestFit="false" customWidth="false"/>
-    <col min="34" max="34" bestFit="false" customWidth="false"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="11.713483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -767,234 +763,237 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>SM LINE CORPORATION</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>SM LINE CORPORATION</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Total Import Container Unstuffing Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Height</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Rotation Number</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Be Number</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Bl Number</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Line Number</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Importer</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Cnf</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Seal Number</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Amen Seal No</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>From Location</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Depot Location</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Issue Date</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>In Date</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>Unstuffing Date</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition</t>
+        </is>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="AB6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="AC6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="AD6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="AE6" s="5" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+      <c r="AF6" s="5" t="inlineStr">
+        <is>
+          <t>In Transport</t>
+        </is>
+      </c>
+      <c r="AG6" s="5" t="inlineStr">
+        <is>
+          <t>Trailer Number</t>
+        </is>
+      </c>
+      <c r="AH6" s="5" t="inlineStr">
+        <is>
+          <t>In Remarks</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Height</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Import Vessel</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>Unstuffing Date</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>In Transport</t>
-        </is>
-      </c>
-      <c r="AD7" s="4" t="inlineStr">
-        <is>
-          <t>In Trailer</t>
-        </is>
-      </c>
-      <c r="AE7" s="4" t="inlineStr">
-        <is>
-          <t>Trailer #</t>
-        </is>
-      </c>
-      <c r="AF7" s="4" t="inlineStr">
-        <is>
-          <t>In Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0"/>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="0"/>
-      <c r="AC8" s="0"/>
-      <c r="AD8" s="0"/>
-      <c r="AE8" s="0"/>
-      <c r="AF8" s="0"/>
-      <c r="AG8" s="0"/>
-      <c r="AH8" s="0"/>
+      <c r="A7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
+      <c r="AE7" s="0"/>
+      <c r="AF7" s="0"/>
+      <c r="AG7" s="0"/>
+      <c r="AH7" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -1017,15 +1016,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.2561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1042,103 +1041,96 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>SM LINE CORPORATION</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>SM LINE CORPORATION</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Total Import Container Unstuffing Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1163,13 +1155,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AK8"/>
+  <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="44.6561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1177,35 +1169,35 @@
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="19.213483146067418"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.713483146067418"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="17.713483146067418"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="7.213483146067416"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="20" max="20" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="33" max="33" bestFit="false" customWidth="false"/>
-    <col min="34" max="34" bestFit="false" customWidth="false"/>
-    <col min="35" max="35" bestFit="false" customWidth="false"/>
-    <col min="36" max="36" bestFit="false" customWidth="false"/>
-    <col min="37" max="37" bestFit="false" customWidth="false"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="13.213483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -1215,237 +1207,255 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>SM LINE CORPORATION</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>SM LINE CORPORATION</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Total Import Container FCL Out Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Rotation Number</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Importer</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Cnf</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Current Depot</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Seal Number</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Amen Seal No</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Be Number</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Bl Number</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Line Number</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>From Location</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Depot Location</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Issue Date</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>In Date</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>Out Date</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
+          <t>Out Location</t>
+        </is>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="AB6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="AC6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="AD6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="AE6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="AF6" s="5" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+      <c r="AG6" s="5" t="inlineStr">
+        <is>
+          <t>Total Lot</t>
+        </is>
+      </c>
+      <c r="AH6" s="5" t="inlineStr">
+        <is>
+          <t>Total Weight</t>
+        </is>
+      </c>
+      <c r="AI6" s="5" t="inlineStr">
+        <is>
+          <t>Out Transport</t>
+        </is>
+      </c>
+      <c r="AJ6" s="5" t="inlineStr">
+        <is>
+          <t>Trailer Number</t>
+        </is>
+      </c>
+      <c r="AK6" s="5" t="inlineStr">
+        <is>
+          <t>Out Remarks</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Import Vessel</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>CNFCommodity</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Current Depo</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>Out Date</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>Out Location</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>Total Lot</t>
-        </is>
-      </c>
-      <c r="AD7" s="4" t="inlineStr">
-        <is>
-          <t>Total Weight</t>
-        </is>
-      </c>
-      <c r="AE7" s="4" t="inlineStr">
-        <is>
-          <t>Out Transport</t>
-        </is>
-      </c>
-      <c r="AF7" s="4" t="inlineStr">
-        <is>
-          <t>Out Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0"/>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="0"/>
-      <c r="AC8" s="0"/>
-      <c r="AD8" s="0"/>
-      <c r="AE8" s="0"/>
-      <c r="AF8" s="0"/>
-      <c r="AG8" s="0"/>
-      <c r="AH8" s="0"/>
-      <c r="AI8" s="0"/>
-      <c r="AJ8" s="0"/>
-      <c r="AK8" s="0"/>
+      <c r="A7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
+      <c r="AE7" s="0"/>
+      <c r="AF7" s="0"/>
+      <c r="AG7" s="0"/>
+      <c r="AH7" s="0"/>
+      <c r="AI7" s="0"/>
+      <c r="AJ7" s="0"/>
+      <c r="AK7" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -1468,15 +1478,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="46.456179775280894" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1493,103 +1503,96 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>SM LINE CORPORATION</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>SM LINE CORPORATION</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Total Import Container FCL Out Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1614,13 +1617,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF19"/>
+  <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1628,30 +1631,30 @@
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="15.18988764044944"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="19.213483146067418"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="22.88988764044944"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="19.213483146067418"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="17.713483146067418"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="22.88988764044944"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.989887640449439"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="19.213483146067418"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="21.789887640449443"/>
     <col min="24" max="24" bestFit="true" customWidth="true" width="21.789887640449443"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="18.48988764044944"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="30" max="30" bestFit="false" customWidth="false"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="3.089887640449438"/>
-    <col min="32" max="32" bestFit="false" customWidth="false"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="11.713483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -1661,189 +1664,307 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>SM LINE CORPORATION</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>SM LINE CORPORATION</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Import Laden Container Stock Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:12</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Rotation Number</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Importer</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Cnf</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Seal Number</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Amen Seal No</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>Issue Date</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>In Date</t>
+        </is>
+      </c>
+      <c r="Y6" s="4" t="inlineStr">
+        <is>
+          <t>From Location</t>
+        </is>
+      </c>
+      <c r="Z6" s="4" t="inlineStr">
+        <is>
+          <t>Depot Location</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Be Number</t>
+        </is>
+      </c>
+      <c r="AB6" s="5" t="inlineStr">
+        <is>
+          <t>Bl Number</t>
+        </is>
+      </c>
+      <c r="AC6" s="5" t="inlineStr">
+        <is>
+          <t>Line Number</t>
+        </is>
+      </c>
+      <c r="AD6" s="5" t="inlineStr">
+        <is>
+          <t>Trailer Number</t>
+        </is>
+      </c>
+      <c r="AE6" s="5" t="inlineStr">
+        <is>
+          <t>In Transport</t>
+        </is>
+      </c>
+      <c r="AF6" s="5" t="inlineStr">
+        <is>
+          <t>In Remarks</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Import Vessel</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
+      <c r="A7" s="0" t="n">
+        <v>9350</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>FCIU4637126</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>SAPL-W</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>CTS</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>SMU</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>KOTA BINTANG</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>2620/2018</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>DAIMON LOGISTICS BD LTD</t>
+        </is>
+      </c>
+      <c r="K7" s="0" t="inlineStr">
+        <is>
+          <t>SOUND</t>
+        </is>
+      </c>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0" t="inlineStr">
+        <is>
+          <t>ROUGH GRANITE BLOCKS</t>
+        </is>
+      </c>
+      <c r="T7" s="0" t="inlineStr">
+        <is>
+          <t>CH4796901</t>
+        </is>
+      </c>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0" t="inlineStr">
+        <is>
+          <t>2018-15066</t>
+        </is>
+      </c>
+      <c r="W7" s="0" t="d">
+        <v>2018-09-05T00:00:00</v>
+      </c>
+      <c r="X7" s="0" t="d">
+        <v>2018-09-08T00:00:00</v>
       </c>
       <c r="Y7" s="4" t="inlineStr">
         <is>
-          <t>BL #</t>
+          <t>CPA</t>
         </is>
       </c>
       <c r="Z7" s="4" t="inlineStr">
         <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>Trailer #</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>In Transport</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>In Remarks</t>
-        </is>
-      </c>
+          <t>SAPL</t>
+        </is>
+      </c>
+      <c r="AA7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="0" t="inlineStr">
+        <is>
+          <t>SMLMTSXJ8A484500</t>
+        </is>
+      </c>
+      <c r="AC7" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD7" s="0"/>
+      <c r="AE7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>9350</v>
+        <v>9351</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>FCIU4637126</t>
+          <t>FCIU4050627</t>
         </is>
       </c>
       <c r="C8" s="0" t="n">
@@ -1903,27 +2024,27 @@
       </c>
       <c r="T8" s="0" t="inlineStr">
         <is>
-          <t>CH4796901</t>
+          <t>CH4796920</t>
         </is>
       </c>
       <c r="U8" s="0"/>
       <c r="V8" s="0" t="inlineStr">
         <is>
-          <t>2018-15066</t>
+          <t>2018-15174</t>
         </is>
       </c>
       <c r="W8" s="0" t="d">
         <v>2018-09-05T00:00:00</v>
       </c>
       <c r="X8" s="0" t="d">
-        <v>2018-09-08T00:00:00</v>
-      </c>
-      <c r="Y8" s="0" t="inlineStr">
+        <v>2018-09-10T00:00:00</v>
+      </c>
+      <c r="Y8" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z8" s="0" t="inlineStr">
+      <c r="Z8" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -1949,11 +2070,11 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>9351</v>
+        <v>9352</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>FCIU4050627</t>
+          <t>CAXU3361530</t>
         </is>
       </c>
       <c r="C9" s="0" t="n">
@@ -2013,13 +2134,13 @@
       </c>
       <c r="T9" s="0" t="inlineStr">
         <is>
-          <t>CH4796920</t>
+          <t>CH4796913</t>
         </is>
       </c>
       <c r="U9" s="0"/>
       <c r="V9" s="0" t="inlineStr">
         <is>
-          <t>2018-15174</t>
+          <t>2018-15168</t>
         </is>
       </c>
       <c r="W9" s="0" t="d">
@@ -2028,12 +2149,12 @@
       <c r="X9" s="0" t="d">
         <v>2018-09-10T00:00:00</v>
       </c>
-      <c r="Y9" s="0" t="inlineStr">
+      <c r="Y9" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z9" s="0" t="inlineStr">
+      <c r="Z9" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2059,11 +2180,11 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>9352</v>
+        <v>9353</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>CAXU3361530</t>
+          <t>DRYU2133094</t>
         </is>
       </c>
       <c r="C10" s="0" t="n">
@@ -2123,13 +2244,13 @@
       </c>
       <c r="T10" s="0" t="inlineStr">
         <is>
-          <t>CH4796913</t>
+          <t>CH4796916</t>
         </is>
       </c>
       <c r="U10" s="0"/>
       <c r="V10" s="0" t="inlineStr">
         <is>
-          <t>2018-15168</t>
+          <t>2018-15178</t>
         </is>
       </c>
       <c r="W10" s="0" t="d">
@@ -2138,12 +2259,12 @@
       <c r="X10" s="0" t="d">
         <v>2018-09-10T00:00:00</v>
       </c>
-      <c r="Y10" s="0" t="inlineStr">
+      <c r="Y10" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z10" s="0" t="inlineStr">
+      <c r="Z10" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2169,11 +2290,11 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>9353</v>
+        <v>9354</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>DRYU2133094</t>
+          <t>FCIU4729109</t>
         </is>
       </c>
       <c r="C11" s="0" t="n">
@@ -2233,13 +2354,13 @@
       </c>
       <c r="T11" s="0" t="inlineStr">
         <is>
-          <t>CH4796916</t>
+          <t>CH4796902</t>
         </is>
       </c>
       <c r="U11" s="0"/>
       <c r="V11" s="0" t="inlineStr">
         <is>
-          <t>2018-15178</t>
+          <t>2018-15173</t>
         </is>
       </c>
       <c r="W11" s="0" t="d">
@@ -2248,12 +2369,12 @@
       <c r="X11" s="0" t="d">
         <v>2018-09-10T00:00:00</v>
       </c>
-      <c r="Y11" s="0" t="inlineStr">
+      <c r="Y11" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z11" s="0" t="inlineStr">
+      <c r="Z11" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2279,11 +2400,11 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>9354</v>
+        <v>9355</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>FCIU4729109</t>
+          <t>DRYU2140175</t>
         </is>
       </c>
       <c r="C12" s="0" t="n">
@@ -2343,13 +2464,13 @@
       </c>
       <c r="T12" s="0" t="inlineStr">
         <is>
-          <t>CH4796902</t>
+          <t>CH4796917</t>
         </is>
       </c>
       <c r="U12" s="0"/>
       <c r="V12" s="0" t="inlineStr">
         <is>
-          <t>2018-15173</t>
+          <t>2018-15176</t>
         </is>
       </c>
       <c r="W12" s="0" t="d">
@@ -2358,12 +2479,12 @@
       <c r="X12" s="0" t="d">
         <v>2018-09-10T00:00:00</v>
       </c>
-      <c r="Y12" s="0" t="inlineStr">
+      <c r="Y12" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z12" s="0" t="inlineStr">
+      <c r="Z12" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2389,11 +2510,11 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>9355</v>
+        <v>9356</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>DRYU2140175</t>
+          <t>DRYU2963126</t>
         </is>
       </c>
       <c r="C13" s="0" t="n">
@@ -2453,13 +2574,13 @@
       </c>
       <c r="T13" s="0" t="inlineStr">
         <is>
-          <t>CH4796917</t>
+          <t>CH4796918</t>
         </is>
       </c>
       <c r="U13" s="0"/>
       <c r="V13" s="0" t="inlineStr">
         <is>
-          <t>2018-15176</t>
+          <t>2018-15175</t>
         </is>
       </c>
       <c r="W13" s="0" t="d">
@@ -2468,12 +2589,12 @@
       <c r="X13" s="0" t="d">
         <v>2018-09-10T00:00:00</v>
       </c>
-      <c r="Y13" s="0" t="inlineStr">
+      <c r="Y13" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z13" s="0" t="inlineStr">
+      <c r="Z13" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2499,11 +2620,11 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>9356</v>
+        <v>9357</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>DRYU2963126</t>
+          <t>BSIU3143466</t>
         </is>
       </c>
       <c r="C14" s="0" t="n">
@@ -2563,13 +2684,13 @@
       </c>
       <c r="T14" s="0" t="inlineStr">
         <is>
-          <t>CH4796918</t>
+          <t>CH4796911</t>
         </is>
       </c>
       <c r="U14" s="0"/>
       <c r="V14" s="0" t="inlineStr">
         <is>
-          <t>2018-15175</t>
+          <t>2018-15172</t>
         </is>
       </c>
       <c r="W14" s="0" t="d">
@@ -2578,12 +2699,12 @@
       <c r="X14" s="0" t="d">
         <v>2018-09-10T00:00:00</v>
       </c>
-      <c r="Y14" s="0" t="inlineStr">
+      <c r="Y14" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z14" s="0" t="inlineStr">
+      <c r="Z14" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2609,11 +2730,11 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>9357</v>
+        <v>9358</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>BSIU3143466</t>
+          <t>CAIU3341023</t>
         </is>
       </c>
       <c r="C15" s="0" t="n">
@@ -2673,13 +2794,13 @@
       </c>
       <c r="T15" s="0" t="inlineStr">
         <is>
-          <t>CH4796911</t>
+          <t>CH4796912</t>
         </is>
       </c>
       <c r="U15" s="0"/>
       <c r="V15" s="0" t="inlineStr">
         <is>
-          <t>2018-15172</t>
+          <t>2018-15190</t>
         </is>
       </c>
       <c r="W15" s="0" t="d">
@@ -2688,12 +2809,12 @@
       <c r="X15" s="0" t="d">
         <v>2018-09-10T00:00:00</v>
       </c>
-      <c r="Y15" s="0" t="inlineStr">
+      <c r="Y15" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z15" s="0" t="inlineStr">
+      <c r="Z15" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2719,11 +2840,11 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>9358</v>
+        <v>9359</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>CAIU3341023</t>
+          <t>TDRU1057390</t>
         </is>
       </c>
       <c r="C16" s="0" t="n">
@@ -2783,13 +2904,13 @@
       </c>
       <c r="T16" s="0" t="inlineStr">
         <is>
-          <t>CH4796912</t>
+          <t>CH4796919</t>
         </is>
       </c>
       <c r="U16" s="0"/>
       <c r="V16" s="0" t="inlineStr">
         <is>
-          <t>2018-15190</t>
+          <t>2018-15028</t>
         </is>
       </c>
       <c r="W16" s="0" t="d">
@@ -2798,12 +2919,12 @@
       <c r="X16" s="0" t="d">
         <v>2018-09-10T00:00:00</v>
       </c>
-      <c r="Y16" s="0" t="inlineStr">
+      <c r="Y16" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z16" s="0" t="inlineStr">
+      <c r="Z16" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2829,11 +2950,11 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>9359</v>
+        <v>9360</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>TDRU1057390</t>
+          <t>CCLU3380797</t>
         </is>
       </c>
       <c r="C17" s="0" t="n">
@@ -2893,27 +3014,27 @@
       </c>
       <c r="T17" s="0" t="inlineStr">
         <is>
-          <t>CH4796919</t>
+          <t>CH4796914</t>
         </is>
       </c>
       <c r="U17" s="0"/>
       <c r="V17" s="0" t="inlineStr">
         <is>
-          <t>2018-15028</t>
+          <t>2018-15397</t>
         </is>
       </c>
       <c r="W17" s="0" t="d">
         <v>2018-09-05T00:00:00</v>
       </c>
       <c r="X17" s="0" t="d">
-        <v>2018-09-10T00:00:00</v>
-      </c>
-      <c r="Y17" s="0" t="inlineStr">
+        <v>2018-09-13T00:00:00</v>
+      </c>
+      <c r="Y17" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z17" s="0" t="inlineStr">
+      <c r="Z17" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2939,11 +3060,11 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>9360</v>
+        <v>9361</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>CCLU3380797</t>
+          <t>CCLU3460526</t>
         </is>
       </c>
       <c r="C18" s="0" t="n">
@@ -3003,13 +3124,13 @@
       </c>
       <c r="T18" s="0" t="inlineStr">
         <is>
-          <t>CH4796914</t>
+          <t>CH4796915</t>
         </is>
       </c>
       <c r="U18" s="0"/>
       <c r="V18" s="0" t="inlineStr">
         <is>
-          <t>2018-15397</t>
+          <t>2018-15198</t>
         </is>
       </c>
       <c r="W18" s="0" t="d">
@@ -3018,12 +3139,12 @@
       <c r="X18" s="0" t="d">
         <v>2018-09-13T00:00:00</v>
       </c>
-      <c r="Y18" s="0" t="inlineStr">
+      <c r="Y18" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z18" s="0" t="inlineStr">
+      <c r="Z18" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -3046,116 +3167,6 @@
         </is>
       </c>
       <c r="AF18" s="0"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="n">
-        <v>9361</v>
-      </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t>CCLU3460526</t>
-        </is>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="D19" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="E19" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="F19" s="0" t="inlineStr">
-        <is>
-          <t>CTS</t>
-        </is>
-      </c>
-      <c r="G19" s="0" t="inlineStr">
-        <is>
-          <t>SMU</t>
-        </is>
-      </c>
-      <c r="H19" s="0" t="inlineStr">
-        <is>
-          <t>KOTA BINTANG</t>
-        </is>
-      </c>
-      <c r="I19" s="0" t="inlineStr">
-        <is>
-          <t>2620/2018</t>
-        </is>
-      </c>
-      <c r="J19" s="0" t="inlineStr">
-        <is>
-          <t>DAIMON LOGISTICS BD LTD</t>
-        </is>
-      </c>
-      <c r="K19" s="0" t="inlineStr">
-        <is>
-          <t>SOUND</t>
-        </is>
-      </c>
-      <c r="L19" s="0"/>
-      <c r="M19" s="0"/>
-      <c r="N19" s="0"/>
-      <c r="O19" s="0"/>
-      <c r="P19" s="0"/>
-      <c r="Q19" s="0"/>
-      <c r="R19" s="0"/>
-      <c r="S19" s="0" t="inlineStr">
-        <is>
-          <t>ROUGH GRANITE BLOCKS</t>
-        </is>
-      </c>
-      <c r="T19" s="0" t="inlineStr">
-        <is>
-          <t>CH4796915</t>
-        </is>
-      </c>
-      <c r="U19" s="0"/>
-      <c r="V19" s="0" t="inlineStr">
-        <is>
-          <t>2018-15198</t>
-        </is>
-      </c>
-      <c r="W19" s="0" t="d">
-        <v>2018-09-05T00:00:00</v>
-      </c>
-      <c r="X19" s="0" t="d">
-        <v>2018-09-13T00:00:00</v>
-      </c>
-      <c r="Y19" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="Z19" s="0" t="inlineStr">
-        <is>
-          <t>SAPL</t>
-        </is>
-      </c>
-      <c r="AA19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="0" t="inlineStr">
-        <is>
-          <t>SMLMTSXJ8A484500</t>
-        </is>
-      </c>
-      <c r="AC19" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="AD19" s="0"/>
-      <c r="AE19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF19" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -3178,15 +3189,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -3203,115 +3214,108 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>SM LINE CORPORATION</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>SM LINE CORPORATION</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Laden Stock Report Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>CTS</t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
+      <c r="B6" s="0" t="inlineStr">
         <is>
           <t>SMU</t>
         </is>
       </c>
-      <c r="C7" s="0" t="inlineStr">
+      <c r="C6" s="0" t="inlineStr">
         <is>
           <t>20-GP</t>
         </is>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D6" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
         <v>12</v>
       </c>
     </row>
@@ -3336,13 +3340,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -3350,20 +3354,20 @@
     <col min="6" max="6" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="8.713483146067416"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="22" max="22" bestFit="false" customWidth="false"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="11.713483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -3373,167 +3377,165 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>SM LINE CORPORATION</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>SM LINE CORPORATION</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Import Issue Balance Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Height</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Vessel Name</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Rotation Number</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Line Number</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Bl Number</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Be Number</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Importer</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Cnf</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>From Location</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Depot Location</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Seal Number</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Amen Seal No</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Issue Date</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Height</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Vessel</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0"/>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
+      <c r="A7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
